--- a/fuentes/contenidos/grado10/guion08/EsqueletoGuion_CN_10_08_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion08/EsqueletoGuion_CN_10_08_CO.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="99">
   <si>
     <t>TITULO</t>
   </si>
@@ -128,7 +128,7 @@
     <t>Recurso M5A-01</t>
   </si>
   <si>
-    <t>RM_10_08_CO</t>
+    <t>RM_01_01_CO</t>
   </si>
   <si>
     <t>Recurso M101A-01</t>
@@ -143,7 +143,7 @@
     <t>Recurso F4-01</t>
   </si>
   <si>
-    <t>RF_10_08_CO</t>
+    <t>RF_01_01_CO</t>
   </si>
   <si>
     <t>¿Qué sabes sobre el calor específico?</t>
@@ -179,7 +179,7 @@
     <t>Los efectos del calor sobre los cuerpos</t>
   </si>
   <si>
-    <t>Recurso F4-03</t>
+    <t>Recurso M4A-01</t>
   </si>
   <si>
     <t>El comportamiento anómalo del agua</t>
@@ -197,31 +197,28 @@
     <t>Recurso F7-01</t>
   </si>
   <si>
+    <t>Recurso M101A-03</t>
+  </si>
+  <si>
+    <t>Recurso F7B-02</t>
+  </si>
+  <si>
     <t>Recurso M5A-03</t>
   </si>
   <si>
     <t>Recurso F4-04</t>
   </si>
   <si>
-    <t>Recurso M101A-03</t>
-  </si>
-  <si>
-    <t>Recurso F7B-02</t>
+    <t>Recurso M101A-04</t>
+  </si>
+  <si>
+    <t>Recurso F13B-01</t>
+  </si>
+  <si>
+    <t>Recurso M7A-01</t>
   </si>
   <si>
     <t>Recurso M5A-04</t>
-  </si>
-  <si>
-    <t>Recurso F4-05</t>
-  </si>
-  <si>
-    <t>Recurso M101A-04</t>
-  </si>
-  <si>
-    <t>Recurso F13B-01</t>
-  </si>
-  <si>
-    <t>Recurso M7A-01</t>
   </si>
   <si>
     <t>Banco de actividades</t>
@@ -980,7 +977,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
@@ -1000,7 +997,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
@@ -1020,7 +1017,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>38</v>
@@ -1100,7 +1097,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
@@ -1112,7 +1109,7 @@
         <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F13">
         <v>12</v>
@@ -1160,7 +1157,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
         <v>38</v>
@@ -1172,7 +1169,7 @@
         <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F16">
         <v>15</v>
@@ -1200,13 +1197,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
         <v>53</v>
@@ -1260,10 +1257,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
         <v>34</v>
@@ -1280,7 +1277,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
         <v>33</v>
@@ -1300,7 +1297,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
         <v>38</v>
@@ -1312,7 +1309,7 @@
         <v>58</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F23">
         <v>22</v>
@@ -1320,16 +1317,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
         <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
         <v>36</v>
@@ -1340,16 +1337,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
         <v>36</v>
@@ -1360,7 +1357,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
         <v>33</v>
@@ -1369,7 +1366,7 @@
         <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E26" t="s">
         <v>36</v>
@@ -1380,7 +1377,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
         <v>38</v>
@@ -1389,10 +1386,10 @@
         <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F27">
         <v>26</v>
@@ -1400,16 +1397,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
         <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E28" t="s">
         <v>36</v>
@@ -1420,7 +1417,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
         <v>38</v>
@@ -1429,10 +1426,10 @@
         <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F29">
         <v>28</v>
@@ -1440,7 +1437,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
@@ -1449,7 +1446,7 @@
         <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E30" t="s">
         <v>36</v>
@@ -1460,7 +1457,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
         <v>38</v>
@@ -1469,10 +1466,10 @@
         <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F31">
         <v>30</v>
@@ -1480,16 +1477,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
         <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E32" t="s">
         <v>36</v>
@@ -1498,7 +1495,22 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" t="s">
+        <v>36</v>
+      </c>
       <c r="F33">
         <v>32</v>
       </c>
@@ -1542,44 +1554,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
         <v>68</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
       </c>
       <c r="C2">
         <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3">
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4">
         <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1625,7 +1637,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1636,7 +1648,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1647,7 +1659,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1658,7 +1670,7 @@
         <v>31</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1669,7 +1681,7 @@
         <v>32</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1680,7 +1692,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1691,7 +1703,7 @@
         <v>37</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1702,7 +1714,7 @@
         <v>40</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1713,7 +1725,7 @@
         <v>42</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1724,7 +1736,7 @@
         <v>43</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1735,7 +1747,7 @@
         <v>44</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1746,7 +1758,7 @@
         <v>45</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1757,7 +1769,7 @@
         <v>48</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1768,7 +1780,7 @@
         <v>50</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1779,7 +1791,7 @@
         <v>51</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1790,7 +1802,7 @@
         <v>52</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1801,7 +1813,7 @@
         <v>53</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1812,7 +1824,7 @@
         <v>54</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1823,7 +1835,7 @@
         <v>55</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1834,7 +1846,7 @@
         <v>56</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1845,7 +1857,7 @@
         <v>57</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1856,7 +1868,7 @@
         <v>58</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1864,10 +1876,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1875,10 +1887,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1886,10 +1898,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1897,10 +1909,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1908,10 +1920,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1919,10 +1931,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1930,10 +1942,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1941,10 +1953,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1952,18 +1964,21 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
       <c r="C33" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1971,10 +1986,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1982,10 +1997,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1993,10 +2008,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2062,10 +2077,10 @@
         <v>20</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2073,10 +2088,10 @@
         <v>20</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2084,10 +2099,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2095,10 +2110,10 @@
         <v>20</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2106,16 +2121,16 @@
         <v>20</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>27</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2123,10 +2138,10 @@
         <v>20</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2134,10 +2149,10 @@
         <v>20</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2145,10 +2160,10 @@
         <v>20</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2156,10 +2171,10 @@
         <v>20</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2167,16 +2182,16 @@
         <v>20</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>29</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2184,13 +2199,13 @@
         <v>20</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2198,13 +2213,13 @@
         <v>20</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2212,13 +2227,13 @@
         <v>20</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2226,13 +2241,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2240,19 +2255,19 @@
         <v>20</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>83</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>30</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -2260,13 +2275,13 @@
         <v>20</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2274,13 +2289,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2288,13 +2303,13 @@
         <v>20</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2302,13 +2317,13 @@
         <v>20</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2316,19 +2331,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>31</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2336,13 +2351,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2350,13 +2365,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2364,13 +2379,13 @@
         <v>20</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -2378,13 +2393,13 @@
         <v>20</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2392,19 +2407,19 @@
         <v>20</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>32</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2412,13 +2427,13 @@
         <v>20</v>
       </c>
       <c r="B27" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2426,13 +2441,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2440,13 +2455,13 @@
         <v>20</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2454,13 +2469,13 @@
         <v>20</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2468,19 +2483,19 @@
         <v>20</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="8" t="s">
         <v>35</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2488,13 +2503,13 @@
         <v>20</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2502,13 +2517,13 @@
         <v>20</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2516,13 +2531,13 @@
         <v>20</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2530,13 +2545,13 @@
         <v>20</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2544,19 +2559,19 @@
         <v>20</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>37</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2564,13 +2579,13 @@
         <v>20</v>
       </c>
       <c r="B37" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="E37" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2578,13 +2593,13 @@
         <v>20</v>
       </c>
       <c r="B38" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="E38" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2592,13 +2607,13 @@
         <v>20</v>
       </c>
       <c r="B39" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="E39" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2606,13 +2621,13 @@
         <v>20</v>
       </c>
       <c r="B40" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="E40" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2620,19 +2635,19 @@
         <v>20</v>
       </c>
       <c r="B41" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D41" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="E41" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H41" s="8" t="s">
         <v>40</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2640,13 +2655,13 @@
         <v>20</v>
       </c>
       <c r="B42" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D42" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="E42" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2654,13 +2669,13 @@
         <v>20</v>
       </c>
       <c r="B43" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="E43" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2668,13 +2683,13 @@
         <v>20</v>
       </c>
       <c r="B44" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="E44" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2682,13 +2697,13 @@
         <v>20</v>
       </c>
       <c r="B45" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="E45" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2696,19 +2711,19 @@
         <v>20</v>
       </c>
       <c r="B46" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="E46" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="8" t="s">
         <v>42</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2716,13 +2731,13 @@
         <v>20</v>
       </c>
       <c r="B47" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D47" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="E47" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2730,13 +2745,13 @@
         <v>20</v>
       </c>
       <c r="B48" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D48" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="E48" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2744,13 +2759,13 @@
         <v>20</v>
       </c>
       <c r="B49" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D49" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="E49" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2758,13 +2773,13 @@
         <v>20</v>
       </c>
       <c r="B50" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D50" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="E50" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2772,19 +2787,19 @@
         <v>20</v>
       </c>
       <c r="B51" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D51" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="E51" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H51" s="8" t="s">
         <v>43</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2792,13 +2807,13 @@
         <v>20</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2806,13 +2821,13 @@
         <v>20</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2820,13 +2835,13 @@
         <v>20</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2834,13 +2849,13 @@
         <v>20</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2848,19 +2863,19 @@
         <v>20</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H56" s="8" t="s">
         <v>44</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2868,13 +2883,13 @@
         <v>20</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2882,13 +2897,13 @@
         <v>20</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2896,13 +2911,13 @@
         <v>20</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2910,13 +2925,13 @@
         <v>20</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2924,19 +2939,19 @@
         <v>20</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H61" s="8" t="s">
         <v>45</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2944,13 +2959,13 @@
         <v>20</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2958,13 +2973,13 @@
         <v>20</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2972,13 +2987,13 @@
         <v>20</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -2986,13 +3001,13 @@
         <v>20</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -3000,19 +3015,19 @@
         <v>20</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="8" t="s">
         <v>48</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -3020,13 +3035,13 @@
         <v>20</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -3034,13 +3049,13 @@
         <v>20</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -3048,13 +3063,13 @@
         <v>20</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -3062,13 +3077,13 @@
         <v>20</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -3076,19 +3091,19 @@
         <v>20</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H71" s="8" t="s">
         <v>50</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -3096,13 +3111,13 @@
         <v>20</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -3110,13 +3125,13 @@
         <v>20</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -3124,13 +3139,13 @@
         <v>20</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -3138,13 +3153,13 @@
         <v>20</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -3152,19 +3167,19 @@
         <v>20</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H76" s="8" t="s">
         <v>51</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -3172,13 +3187,13 @@
         <v>20</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -3186,13 +3201,13 @@
         <v>20</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -3200,13 +3215,13 @@
         <v>20</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -3214,13 +3229,13 @@
         <v>20</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -3228,19 +3243,19 @@
         <v>20</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H81" s="8" t="s">
         <v>52</v>
       </c>
       <c r="I81" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -3248,13 +3263,13 @@
         <v>20</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -3262,13 +3277,13 @@
         <v>20</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -3276,13 +3291,13 @@
         <v>20</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -3290,13 +3305,13 @@
         <v>20</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -3304,19 +3319,19 @@
         <v>20</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H86" s="8" t="s">
         <v>53</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -3324,16 +3339,16 @@
         <v>20</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D87" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F87" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F87" s="9" t="s">
-        <v>90</v>
-      </c>
       <c r="G87" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -3341,16 +3356,16 @@
         <v>20</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D88" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F88" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F88" s="9" t="s">
-        <v>90</v>
-      </c>
       <c r="G88" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -3358,16 +3373,16 @@
         <v>20</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D89" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F89" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F89" s="9" t="s">
-        <v>90</v>
-      </c>
       <c r="G89" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -3375,16 +3390,16 @@
         <v>20</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D90" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F90" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F90" s="9" t="s">
-        <v>90</v>
-      </c>
       <c r="G90" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -3392,22 +3407,22 @@
         <v>20</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D91" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F91" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F91" s="9" t="s">
-        <v>90</v>
-      </c>
       <c r="G91" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H91" s="8" t="s">
         <v>54</v>
       </c>
       <c r="I91" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -3415,13 +3430,13 @@
         <v>20</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -3429,13 +3444,13 @@
         <v>20</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -3443,13 +3458,13 @@
         <v>20</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -3457,13 +3472,13 @@
         <v>20</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -3471,19 +3486,19 @@
         <v>20</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H96" s="8" t="s">
         <v>55</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -3491,13 +3506,13 @@
         <v>20</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -3505,13 +3520,13 @@
         <v>20</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -3519,13 +3534,13 @@
         <v>20</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -3533,13 +3548,13 @@
         <v>20</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -3547,19 +3562,19 @@
         <v>20</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H101" s="8" t="s">
         <v>56</v>
       </c>
       <c r="I101" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -3567,13 +3582,13 @@
         <v>20</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -3581,13 +3596,13 @@
         <v>20</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -3595,13 +3610,13 @@
         <v>20</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -3609,13 +3624,13 @@
         <v>20</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -3623,19 +3638,19 @@
         <v>20</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H106" s="8" t="s">
         <v>57</v>
       </c>
       <c r="I106" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -3643,13 +3658,13 @@
         <v>20</v>
       </c>
       <c r="B107" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D107" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D107" s="9" t="s">
-        <v>92</v>
-      </c>
       <c r="E107" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -3657,13 +3672,13 @@
         <v>20</v>
       </c>
       <c r="B108" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D108" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D108" s="9" t="s">
-        <v>92</v>
-      </c>
       <c r="E108" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -3671,13 +3686,13 @@
         <v>20</v>
       </c>
       <c r="B109" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D109" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D109" s="9" t="s">
-        <v>92</v>
-      </c>
       <c r="E109" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -3685,13 +3700,13 @@
         <v>20</v>
       </c>
       <c r="B110" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D110" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D110" s="9" t="s">
-        <v>92</v>
-      </c>
       <c r="E110" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -3699,19 +3714,19 @@
         <v>20</v>
       </c>
       <c r="B111" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D111" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D111" s="9" t="s">
-        <v>92</v>
-      </c>
       <c r="E111" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H111" s="8" t="s">
         <v>58</v>
       </c>
       <c r="I111" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -3719,13 +3734,13 @@
         <v>20</v>
       </c>
       <c r="B112" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D112" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D112" s="9" t="s">
-        <v>92</v>
-      </c>
       <c r="E112" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -3733,13 +3748,13 @@
         <v>20</v>
       </c>
       <c r="B113" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D113" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D113" s="9" t="s">
-        <v>92</v>
-      </c>
       <c r="E113" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -3747,13 +3762,13 @@
         <v>20</v>
       </c>
       <c r="B114" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D114" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D114" s="9" t="s">
-        <v>92</v>
-      </c>
       <c r="E114" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -3761,13 +3776,13 @@
         <v>20</v>
       </c>
       <c r="B115" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D115" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D115" s="9" t="s">
-        <v>92</v>
-      </c>
       <c r="E115" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -3775,19 +3790,19 @@
         <v>20</v>
       </c>
       <c r="B116" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D116" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D116" s="9" t="s">
-        <v>92</v>
-      </c>
       <c r="E116" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I116" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -3795,16 +3810,16 @@
         <v>20</v>
       </c>
       <c r="B117" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D117" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D117" s="9" t="s">
+      <c r="F117" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F117" s="9" t="s">
-        <v>93</v>
-      </c>
       <c r="G117" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -3812,16 +3827,16 @@
         <v>20</v>
       </c>
       <c r="B118" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D118" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D118" s="9" t="s">
+      <c r="F118" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F118" s="9" t="s">
-        <v>93</v>
-      </c>
       <c r="G118" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -3829,16 +3844,16 @@
         <v>20</v>
       </c>
       <c r="B119" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D119" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D119" s="9" t="s">
+      <c r="F119" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F119" s="9" t="s">
-        <v>93</v>
-      </c>
       <c r="G119" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -3846,16 +3861,16 @@
         <v>20</v>
       </c>
       <c r="B120" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D120" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D120" s="9" t="s">
+      <c r="F120" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F120" s="9" t="s">
-        <v>93</v>
-      </c>
       <c r="G120" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -3863,22 +3878,22 @@
         <v>20</v>
       </c>
       <c r="B121" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D121" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D121" s="9" t="s">
+      <c r="F121" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F121" s="9" t="s">
-        <v>93</v>
-      </c>
       <c r="G121" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I121" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -3886,13 +3901,13 @@
         <v>20</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -3900,13 +3915,13 @@
         <v>20</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -3914,13 +3929,13 @@
         <v>20</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -3928,13 +3943,13 @@
         <v>20</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -3942,19 +3957,19 @@
         <v>20</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I126" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -3962,13 +3977,13 @@
         <v>20</v>
       </c>
       <c r="B127" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D127" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D127" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="E127" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -3976,13 +3991,13 @@
         <v>20</v>
       </c>
       <c r="B128" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D128" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D128" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="E128" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -3990,13 +4005,13 @@
         <v>20</v>
       </c>
       <c r="B129" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D129" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D129" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="E129" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -4004,13 +4019,13 @@
         <v>20</v>
       </c>
       <c r="B130" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D130" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D130" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="E130" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -4018,19 +4033,19 @@
         <v>20</v>
       </c>
       <c r="B131" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D131" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D131" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="E131" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I131" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -4038,13 +4053,13 @@
         <v>20</v>
       </c>
       <c r="B132" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D132" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D132" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="E132" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -4052,13 +4067,13 @@
         <v>20</v>
       </c>
       <c r="B133" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D133" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D133" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="E133" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -4066,13 +4081,13 @@
         <v>20</v>
       </c>
       <c r="B134" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D134" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D134" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="E134" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -4080,13 +4095,13 @@
         <v>20</v>
       </c>
       <c r="B135" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D135" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D135" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="E135" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -4094,19 +4109,19 @@
         <v>20</v>
       </c>
       <c r="B136" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D136" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D136" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="E136" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H136" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I136" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -4114,13 +4129,13 @@
         <v>20</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -4128,13 +4143,13 @@
         <v>20</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -4142,13 +4157,13 @@
         <v>20</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -4156,13 +4171,13 @@
         <v>20</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -4170,19 +4185,19 @@
         <v>20</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H141" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I141" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -4190,13 +4205,13 @@
         <v>20</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -4204,13 +4219,13 @@
         <v>20</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -4218,13 +4233,13 @@
         <v>20</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -4232,13 +4247,13 @@
         <v>20</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -4246,19 +4261,19 @@
         <v>20</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H146" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I146" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -4266,10 +4281,10 @@
         <v>20</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -4277,10 +4292,10 @@
         <v>20</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -4288,10 +4303,10 @@
         <v>20</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -4299,10 +4314,10 @@
         <v>20</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -4310,16 +4325,16 @@
         <v>20</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H151" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I151" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -4327,10 +4342,10 @@
         <v>20</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -4338,10 +4353,10 @@
         <v>20</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -4349,10 +4364,10 @@
         <v>20</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -4360,10 +4375,10 @@
         <v>20</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -4371,16 +4386,16 @@
         <v>20</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H156" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I156" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -4388,10 +4403,10 @@
         <v>20</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -4399,10 +4414,10 @@
         <v>20</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -4410,10 +4425,10 @@
         <v>20</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -4421,10 +4436,10 @@
         <v>20</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -4432,13 +4447,16 @@
         <v>20</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="H161" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="I161" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -4446,13 +4464,13 @@
         <v>20</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I162" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -4460,16 +4478,16 @@
         <v>20</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H163" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I163" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
